--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vkr_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8B4D1-61BC-4431-BB17-6CD3F8E11B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81D768-FB4C-40BF-8F0B-A9C3A02476BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>ФИО</t>
   </si>
@@ -194,12 +194,6 @@
     <t>between_words</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Руководитель</t>
-  </si>
-  <si>
     <t xml:space="preserve">ФИО </t>
   </si>
   <si>
@@ -216,13 +210,43 @@
   </si>
   <si>
     <t>anchor_prev</t>
+  </si>
+  <si>
+    <t>РукПрофОрг</t>
+  </si>
+  <si>
+    <t>РукВуз</t>
+  </si>
+  <si>
+    <t>Артёмов Артём Артёмович</t>
+  </si>
+  <si>
+    <t>Фимозов Фимоз Фимозович</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Руководитель практики от профильной организации</t>
+  </si>
+  <si>
+    <t>Руководитель практики от организации (вуза)</t>
+  </si>
+  <si>
+    <t>anchor_after_slash</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>(пусто)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +261,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,8 +305,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -574,14 +606,15 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -607,13 +640,19 @@
       <c r="J1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -636,17 +675,24 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>45902</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -655,10 +701,10 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="P7" sqref="P7:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -668,7 +714,7 @@
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -732,7 +778,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,7 +789,9 @@
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -753,9 +801,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +814,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -780,7 +830,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -803,7 +853,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -826,89 +876,63 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>56</v>
+    <row r="8" spans="1:13" ht="30">
+      <c r="A8" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K8" s="5">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>68</v>
+      </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>65</v>
+      </c>
       <c r="K9" s="5">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -930,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -953,7 +977,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -976,7 +1000,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -993,7 +1017,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5">
         <v>1</v>
@@ -1016,13 +1040,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1030,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1054,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
